--- a/output/evaluation_runs_accuracy_comparison.tsv.xlsx
+++ b/output/evaluation_runs_accuracy_comparison.tsv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimit\project\prompt_evaluation\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E7AB15-03D0-4B6F-8A37-430B71280687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F957EB9C-5F42-4018-AAEA-9F5ECE1A23D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1441,7 +1441,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="534">
+  <dxfs count="536">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -23579,12 +23599,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B262">
-    <cfRule type="top10" dxfId="533" priority="151" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="532" priority="63" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="531" priority="66" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="535" priority="151" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="534" priority="63" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="533" priority="66" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270:B274">
-    <cfRule type="top10" dxfId="530" priority="34" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="532" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:R277">
     <cfRule type="colorScale" priority="1">
@@ -23607,12 +23627,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C195:C262">
-    <cfRule type="top10" dxfId="529" priority="152" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="528" priority="62" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="527" priority="65" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="531" priority="152" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="530" priority="62" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="529" priority="65" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C270:C274">
-    <cfRule type="top10" dxfId="526" priority="33" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="528" priority="33" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D269 D271:D275 D278:D1048576">
     <cfRule type="colorScale" priority="104">
@@ -23625,14 +23645,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D195:D262">
-    <cfRule type="top10" dxfId="525" priority="153" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="524" priority="64" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="527" priority="153" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="526" priority="64" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212:D263">
-    <cfRule type="top10" dxfId="523" priority="61" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="525" priority="61" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270:D274">
-    <cfRule type="top10" dxfId="522" priority="32" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="524" priority="32" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E269 E271:E275 E278:E1048576">
     <cfRule type="colorScale" priority="103">
@@ -23645,15 +23665,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195:E262">
-    <cfRule type="top10" dxfId="521" priority="154" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="520" priority="60" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="519" priority="155" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="523" priority="154" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="522" priority="60" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="521" priority="155" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195:E263">
-    <cfRule type="top10" dxfId="518" priority="159" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="520" priority="159" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E270:E274">
-    <cfRule type="top10" dxfId="517" priority="31" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="519" priority="31" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F209">
     <cfRule type="colorScale" priority="87">
@@ -23664,31 +23684,31 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="516" priority="74" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="518" priority="74" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F262">
-    <cfRule type="top10" dxfId="515" priority="59" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="514" priority="158" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="513" priority="157" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="512" priority="156" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="517" priority="59" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="516" priority="158" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="515" priority="157" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="514" priority="156" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F263">
-    <cfRule type="top10" dxfId="511" priority="107" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="513" priority="107" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F270:F274">
-    <cfRule type="top10" dxfId="510" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="512" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195:G209">
-    <cfRule type="top10" dxfId="509" priority="86" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="511" priority="86" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195:G262">
-    <cfRule type="top10" dxfId="508" priority="110" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="507" priority="109" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="506" priority="108" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="505" priority="58" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="504" priority="35" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="503" priority="112" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="502" priority="111" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="510" priority="110" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="509" priority="109" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="508" priority="108" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="507" priority="58" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="506" priority="35" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="505" priority="112" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="504" priority="111" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G267:G269 G1:G9 G11:G265 G271:G276 H276:R276 B276:F276 G278:G1048576">
     <cfRule type="colorScale" priority="101">
@@ -23701,7 +23721,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G270:G274">
-    <cfRule type="top10" dxfId="501" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="503" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G266:R266 F1:F269 G10:V10 F271:F275 F278:F1048576">
     <cfRule type="colorScale" priority="102">
@@ -23714,15 +23734,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H195:H209">
-    <cfRule type="top10" dxfId="500" priority="85" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="502" priority="85" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H195:H262">
-    <cfRule type="top10" dxfId="499" priority="115" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="498" priority="113" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="497" priority="36" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="496" priority="114" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="495" priority="57" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="494" priority="116" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="501" priority="115" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="500" priority="113" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="499" priority="36" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="498" priority="114" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="497" priority="57" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="496" priority="116" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H267:H269 H1:H9 H11:H265 H271:H275 H278:H1048576">
     <cfRule type="colorScale" priority="100">
@@ -23735,18 +23755,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H270:H274">
-    <cfRule type="top10" dxfId="493" priority="28" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="495" priority="28" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195:I209">
-    <cfRule type="top10" dxfId="492" priority="84" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="494" priority="84" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195:I262">
-    <cfRule type="top10" dxfId="491" priority="37" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="490" priority="56" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="489" priority="117" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="488" priority="118" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="487" priority="119" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="486" priority="120" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="493" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="492" priority="56" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="491" priority="117" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="490" priority="118" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="489" priority="119" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="488" priority="120" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I267:I269 I1:I9 I11:I265 I271:I275 I278:I1048576">
     <cfRule type="colorScale" priority="99">
@@ -23759,18 +23779,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I270:I274">
-    <cfRule type="top10" dxfId="485" priority="27" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="487" priority="27" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J195:J209">
-    <cfRule type="top10" dxfId="484" priority="83" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="486" priority="83" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J195:J262">
-    <cfRule type="top10" dxfId="483" priority="38" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="482" priority="124" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="481" priority="123" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="480" priority="122" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="479" priority="121" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="478" priority="55" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="485" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="484" priority="124" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="483" priority="123" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="482" priority="122" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="481" priority="121" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="480" priority="55" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J267:J269 J1:J9 J11:J265 J271:J275 J278:J1048576">
     <cfRule type="colorScale" priority="97">
@@ -23783,18 +23803,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J270:J274">
-    <cfRule type="top10" dxfId="477" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="479" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195:K209">
-    <cfRule type="top10" dxfId="476" priority="82" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="478" priority="82" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195:K262">
-    <cfRule type="top10" dxfId="475" priority="128" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="474" priority="126" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="473" priority="127" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="472" priority="54" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="471" priority="39" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="470" priority="125" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="477" priority="128" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="476" priority="126" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="475" priority="127" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="474" priority="54" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="473" priority="39" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="472" priority="125" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K267:K269 K1:K9 K11:K265 K271:K275 K278:K1048576">
     <cfRule type="colorScale" priority="98">
@@ -23807,21 +23827,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K270:K274">
-    <cfRule type="top10" dxfId="469" priority="25" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="471" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L195:L209">
-    <cfRule type="top10" dxfId="468" priority="81" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="470" priority="81" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L195:L262">
-    <cfRule type="top10" dxfId="467" priority="129" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="466" priority="130" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="465" priority="131" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="464" priority="40" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="463" priority="53" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="462" priority="132" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="469" priority="129" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="468" priority="130" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="467" priority="131" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="466" priority="40" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="465" priority="53" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="464" priority="132" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L203:L262">
-    <cfRule type="top10" dxfId="461" priority="160" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="463" priority="160" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L267:L269 L1:L9 L11:L265 L271:L275 L278:L1048576">
     <cfRule type="colorScale" priority="96">
@@ -23834,20 +23854,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L270:L274">
-    <cfRule type="top10" dxfId="460" priority="24" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="462" priority="24" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M195:M209">
-    <cfRule type="top10" dxfId="459" priority="80" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="461" priority="80" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M195:M262">
-    <cfRule type="top10" dxfId="458" priority="41" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="457" priority="133" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="456" priority="134" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="455" priority="135" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="454" priority="52" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="460" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="459" priority="133" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="458" priority="134" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="457" priority="135" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="456" priority="52" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M203:M262">
-    <cfRule type="top10" dxfId="453" priority="161" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="455" priority="161" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M267:M269 M1:M9 M11:M265 M271:M275 M278:M1048576">
     <cfRule type="colorScale" priority="95">
@@ -23860,20 +23880,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M270:M274">
-    <cfRule type="top10" dxfId="452" priority="23" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="454" priority="23" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N195:N209">
-    <cfRule type="top10" dxfId="451" priority="79" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="453" priority="79" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N195:N262">
-    <cfRule type="top10" dxfId="450" priority="42" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="449" priority="51" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="448" priority="136" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="447" priority="137" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="446" priority="138" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="452" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="451" priority="51" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="450" priority="136" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="449" priority="137" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="448" priority="138" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N203:N262">
-    <cfRule type="top10" dxfId="445" priority="162" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="447" priority="162" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:N269 N1:N9 N11:N265 N271:N275 N278:N1048576">
     <cfRule type="colorScale" priority="94">
@@ -23886,20 +23906,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N270:N274">
-    <cfRule type="top10" dxfId="444" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="446" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O195:O209">
-    <cfRule type="top10" dxfId="443" priority="78" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="445" priority="78" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O195:O262">
-    <cfRule type="top10" dxfId="442" priority="43" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="441" priority="139" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="440" priority="50" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="439" priority="140" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="438" priority="141" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="444" priority="43" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="443" priority="139" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="442" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="441" priority="140" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="440" priority="141" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O203:O262">
-    <cfRule type="top10" dxfId="437" priority="163" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="439" priority="163" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O267:O269 O1:O9 O11:O265 O271:O275 O278:O1048576">
     <cfRule type="colorScale" priority="93">
@@ -23912,20 +23932,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O270:O274">
-    <cfRule type="top10" dxfId="436" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="438" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P195:P209">
-    <cfRule type="top10" dxfId="435" priority="77" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="437" priority="77" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P195:P262">
-    <cfRule type="top10" dxfId="434" priority="142" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="433" priority="143" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="432" priority="49" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="431" priority="44" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="430" priority="144" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="436" priority="142" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="435" priority="143" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="434" priority="49" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="433" priority="44" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="432" priority="144" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P203:P262">
-    <cfRule type="top10" dxfId="429" priority="164" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="431" priority="164" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P267:P269 P1:P9 P11:P265 P271:P275 P278:P1048576">
     <cfRule type="colorScale" priority="92">
@@ -23938,20 +23958,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P270:P274">
-    <cfRule type="top10" dxfId="428" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="430" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q195:Q209">
-    <cfRule type="top10" dxfId="427" priority="76" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="429" priority="76" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q195:Q262">
-    <cfRule type="top10" dxfId="426" priority="45" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="425" priority="48" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="424" priority="145" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="423" priority="146" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="422" priority="147" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="428" priority="45" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="427" priority="48" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="426" priority="145" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="425" priority="146" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="424" priority="147" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q203:Q262">
-    <cfRule type="top10" dxfId="421" priority="165" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="423" priority="165" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q267:Q269 Q1:Q9 Q11:Q265 Q271:Q275 Q278:Q1048576">
     <cfRule type="colorScale" priority="91">
@@ -23964,20 +23984,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q270:Q274">
-    <cfRule type="top10" dxfId="420" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="422" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R195:R209">
-    <cfRule type="top10" dxfId="419" priority="75" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="421" priority="75" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R195:R262">
-    <cfRule type="top10" dxfId="418" priority="149" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="417" priority="46" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="416" priority="47" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="415" priority="148" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="414" priority="150" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="420" priority="149" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="419" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="418" priority="47" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="417" priority="148" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="416" priority="150" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R203:R262">
-    <cfRule type="top10" dxfId="413" priority="166" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="415" priority="166" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R267:R269 R1:R9 R11:R265 R271:R275 R278:R1048576">
     <cfRule type="colorScale" priority="90">
@@ -23990,10 +24010,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R270:R274">
-    <cfRule type="top10" dxfId="412" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="414" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T270:T281">
-    <cfRule type="top10" dxfId="411" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="413" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T270:U270 V1:V9 B270:R270 V11:V1048576 W277:W281 T271:T281">
     <cfRule type="colorScale" priority="88">
@@ -24016,34 +24036,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V194:V281 W277:W281">
-    <cfRule type="top10" dxfId="410" priority="71" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="409" priority="72" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="412" priority="71" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="411" priority="72" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V195:V281 W277:W281">
-    <cfRule type="top10" dxfId="408" priority="67" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="407" priority="69" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="406" priority="70" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="405" priority="73" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="410" priority="67" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="409" priority="69" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="408" priority="70" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="407" priority="73" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V212:V236">
-    <cfRule type="top10" dxfId="404" priority="68" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="406" priority="68" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V270:V281 W277:W281">
-    <cfRule type="top10" dxfId="403" priority="15" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="402" priority="16" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="401" priority="17" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="400" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="405" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="404" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="403" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="402" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W270:W276">
-    <cfRule type="top10" dxfId="399" priority="7" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="398" priority="5" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="397" priority="4" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="396" priority="3" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="395" priority="2" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="394" priority="6" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="393" priority="9" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="392" priority="10" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="391" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="401" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="400" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="399" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="398" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="397" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="396" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="395" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="394" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="393" priority="11" percent="1" rank="10"/>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -24052,7 +24072,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="390" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="392" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40559,12 +40579,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:B262">
-    <cfRule type="top10" dxfId="389" priority="151" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="388" priority="63" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="387" priority="66" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="391" priority="151" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="390" priority="63" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="389" priority="66" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270:B274">
-    <cfRule type="top10" dxfId="386" priority="34" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="388" priority="34" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:R277">
     <cfRule type="colorScale" priority="1">
@@ -40587,12 +40607,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C195:C262">
-    <cfRule type="top10" dxfId="385" priority="152" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="384" priority="62" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="383" priority="65" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="387" priority="152" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="386" priority="62" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="385" priority="65" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C270:C274">
-    <cfRule type="top10" dxfId="382" priority="33" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="384" priority="33" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D269 D271:D275 D278:D1048576">
     <cfRule type="colorScale" priority="104">
@@ -40605,14 +40625,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D195:D262">
-    <cfRule type="top10" dxfId="381" priority="153" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="380" priority="64" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="383" priority="153" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="382" priority="64" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D212:D263">
-    <cfRule type="top10" dxfId="379" priority="61" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="381" priority="61" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270:D274">
-    <cfRule type="top10" dxfId="378" priority="32" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="380" priority="32" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E269 E271:E275 E278:E1048576">
     <cfRule type="colorScale" priority="103">
@@ -40625,15 +40645,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195:E262">
-    <cfRule type="top10" dxfId="377" priority="154" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="376" priority="60" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="375" priority="155" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="379" priority="154" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="378" priority="60" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="377" priority="155" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195:E263">
-    <cfRule type="top10" dxfId="374" priority="159" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="376" priority="159" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E270:E274">
-    <cfRule type="top10" dxfId="373" priority="31" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="375" priority="31" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F209">
     <cfRule type="colorScale" priority="87">
@@ -40644,31 +40664,31 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="372" priority="74" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="374" priority="74" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F262">
-    <cfRule type="top10" dxfId="371" priority="59" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="370" priority="158" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="369" priority="157" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="368" priority="156" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="373" priority="59" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="372" priority="158" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="371" priority="157" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="370" priority="156" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195:F263">
-    <cfRule type="top10" dxfId="367" priority="107" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="369" priority="107" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F270:F274">
-    <cfRule type="top10" dxfId="366" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="368" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195:G209">
-    <cfRule type="top10" dxfId="365" priority="86" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="367" priority="86" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G195:G262">
-    <cfRule type="top10" dxfId="364" priority="110" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="363" priority="109" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="362" priority="108" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="361" priority="58" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="360" priority="35" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="359" priority="112" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="358" priority="111" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="366" priority="110" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="365" priority="109" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="364" priority="108" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="363" priority="58" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="362" priority="35" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="361" priority="112" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="360" priority="111" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G267:G269 G1:G9 G11:G265 G271:G276 H276:R276 B276:F276 G278:G1048576">
     <cfRule type="colorScale" priority="101">
@@ -40681,7 +40701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G270:G274">
-    <cfRule type="top10" dxfId="357" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="359" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G266:R266 F1:F269 G10:V10 F271:F275 F278:F1048576">
     <cfRule type="colorScale" priority="102">
@@ -40694,15 +40714,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H195:H209">
-    <cfRule type="top10" dxfId="356" priority="85" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="358" priority="85" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H195:H262">
-    <cfRule type="top10" dxfId="355" priority="115" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="354" priority="113" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="353" priority="36" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="352" priority="114" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="351" priority="57" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="350" priority="116" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="357" priority="115" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="356" priority="113" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="355" priority="36" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="354" priority="114" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="353" priority="57" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="352" priority="116" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H267:H269 H1:H9 H11:H265 H271:H275 H278:H1048576">
     <cfRule type="colorScale" priority="100">
@@ -40715,18 +40735,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H270:H274">
-    <cfRule type="top10" dxfId="349" priority="28" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="351" priority="28" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195:I209">
-    <cfRule type="top10" dxfId="348" priority="84" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="350" priority="84" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I195:I262">
-    <cfRule type="top10" dxfId="347" priority="37" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="346" priority="56" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="345" priority="117" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="344" priority="118" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="343" priority="119" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="342" priority="120" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="349" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="348" priority="56" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="347" priority="117" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="346" priority="118" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="345" priority="119" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="344" priority="120" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I267:I269 I1:I9 I11:I265 I271:I275 I278:I1048576">
     <cfRule type="colorScale" priority="99">
@@ -40739,18 +40759,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I270:I274">
-    <cfRule type="top10" dxfId="341" priority="27" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="343" priority="27" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J195:J209">
-    <cfRule type="top10" dxfId="340" priority="83" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="342" priority="83" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J195:J262">
-    <cfRule type="top10" dxfId="339" priority="38" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="338" priority="124" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="337" priority="123" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="336" priority="122" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="335" priority="121" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="334" priority="55" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="341" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="340" priority="124" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="339" priority="123" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="338" priority="122" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="337" priority="121" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="336" priority="55" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J267:J269 J1:J9 J11:J265 J271:J275 J278:J1048576">
     <cfRule type="colorScale" priority="97">
@@ -40763,18 +40783,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J270:J274">
-    <cfRule type="top10" dxfId="333" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="335" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195:K209">
-    <cfRule type="top10" dxfId="332" priority="82" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="334" priority="82" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195:K262">
-    <cfRule type="top10" dxfId="331" priority="128" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="330" priority="126" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="329" priority="127" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="328" priority="54" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="327" priority="39" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="326" priority="125" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="333" priority="128" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="332" priority="126" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="331" priority="127" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="330" priority="54" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="329" priority="39" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="328" priority="125" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K267:K269 K1:K9 K11:K265 K271:K275 K278:K1048576">
     <cfRule type="colorScale" priority="98">
@@ -40787,21 +40807,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K270:K274">
-    <cfRule type="top10" dxfId="325" priority="25" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="327" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L195:L209">
-    <cfRule type="top10" dxfId="324" priority="81" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="326" priority="81" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L195:L262">
-    <cfRule type="top10" dxfId="323" priority="129" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="322" priority="130" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="321" priority="131" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="320" priority="40" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="319" priority="53" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="318" priority="132" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="325" priority="129" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="324" priority="130" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="323" priority="131" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="322" priority="40" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="321" priority="53" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="320" priority="132" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L203:L262">
-    <cfRule type="top10" dxfId="317" priority="160" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="319" priority="160" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L267:L269 L1:L9 L11:L265 L271:L275 L278:L1048576">
     <cfRule type="colorScale" priority="96">
@@ -40814,20 +40834,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L270:L274">
-    <cfRule type="top10" dxfId="316" priority="24" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="318" priority="24" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M195:M209">
-    <cfRule type="top10" dxfId="315" priority="80" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="317" priority="80" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M195:M262">
-    <cfRule type="top10" dxfId="314" priority="41" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="313" priority="133" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="312" priority="134" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="311" priority="135" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="310" priority="52" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="316" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="315" priority="133" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="314" priority="134" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="313" priority="135" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="312" priority="52" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M203:M262">
-    <cfRule type="top10" dxfId="309" priority="161" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="311" priority="161" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M267:M269 M1:M9 M11:M265 M271:M275 M278:M1048576">
     <cfRule type="colorScale" priority="95">
@@ -40840,20 +40860,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M270:M274">
-    <cfRule type="top10" dxfId="308" priority="23" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="310" priority="23" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N195:N209">
-    <cfRule type="top10" dxfId="307" priority="79" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="309" priority="79" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N195:N262">
-    <cfRule type="top10" dxfId="306" priority="42" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="305" priority="51" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="304" priority="136" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="303" priority="137" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="302" priority="138" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="308" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="307" priority="51" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="306" priority="136" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="305" priority="137" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="304" priority="138" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N203:N262">
-    <cfRule type="top10" dxfId="301" priority="162" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="303" priority="162" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:N269 N1:N9 N11:N265 N271:N275 N278:N1048576">
     <cfRule type="colorScale" priority="94">
@@ -40866,20 +40886,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N270:N274">
-    <cfRule type="top10" dxfId="300" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="302" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O195:O209">
-    <cfRule type="top10" dxfId="299" priority="78" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="301" priority="78" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O195:O262">
-    <cfRule type="top10" dxfId="298" priority="43" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="297" priority="139" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="296" priority="50" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="295" priority="140" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="294" priority="141" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="300" priority="43" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="299" priority="139" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="298" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="297" priority="140" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="296" priority="141" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O203:O262">
-    <cfRule type="top10" dxfId="293" priority="163" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="295" priority="163" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O267:O269 O1:O9 O11:O265 O271:O275 O278:O1048576">
     <cfRule type="colorScale" priority="93">
@@ -40892,20 +40912,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O270:O274">
-    <cfRule type="top10" dxfId="292" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="294" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P195:P209">
-    <cfRule type="top10" dxfId="291" priority="77" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="293" priority="77" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P195:P262">
-    <cfRule type="top10" dxfId="290" priority="142" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="289" priority="143" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="288" priority="49" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="287" priority="44" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="286" priority="144" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="292" priority="142" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="291" priority="143" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="290" priority="49" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="289" priority="44" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="288" priority="144" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P203:P262">
-    <cfRule type="top10" dxfId="285" priority="164" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="287" priority="164" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P267:P269 P1:P9 P11:P265 P271:P275 P278:P1048576">
     <cfRule type="colorScale" priority="92">
@@ -40918,20 +40938,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P270:P274">
-    <cfRule type="top10" dxfId="284" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="286" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q195:Q209">
-    <cfRule type="top10" dxfId="283" priority="76" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="285" priority="76" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q195:Q262">
-    <cfRule type="top10" dxfId="282" priority="45" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="281" priority="48" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="280" priority="145" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="279" priority="146" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="278" priority="147" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="284" priority="45" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="283" priority="48" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="282" priority="145" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="281" priority="146" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="280" priority="147" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q203:Q262">
-    <cfRule type="top10" dxfId="277" priority="165" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="279" priority="165" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q267:Q269 Q1:Q9 Q11:Q265 Q271:Q275 Q278:Q1048576">
     <cfRule type="colorScale" priority="91">
@@ -40944,20 +40964,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q270:Q274">
-    <cfRule type="top10" dxfId="276" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="278" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R195:R209">
-    <cfRule type="top10" dxfId="275" priority="75" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="277" priority="75" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R195:R262">
-    <cfRule type="top10" dxfId="274" priority="149" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="273" priority="46" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="272" priority="47" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="271" priority="148" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="270" priority="150" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="276" priority="149" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="275" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="274" priority="47" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="273" priority="148" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="272" priority="150" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R203:R262">
-    <cfRule type="top10" dxfId="269" priority="166" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="271" priority="166" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R267:R269 R1:R9 R11:R265 R271:R275 R278:R1048576">
     <cfRule type="colorScale" priority="90">
@@ -40970,10 +40990,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R270:R274">
-    <cfRule type="top10" dxfId="268" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="270" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T270:T281">
-    <cfRule type="top10" dxfId="267" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="269" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T270:U270 V1:V9 B270:R270 V11:V1048576 W277:W281 T271:T281">
     <cfRule type="colorScale" priority="88">
@@ -40996,34 +41016,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V194:V281 W277:W281">
-    <cfRule type="top10" dxfId="266" priority="71" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="265" priority="72" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="268" priority="71" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="267" priority="72" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V195:V281 W277:W281">
-    <cfRule type="top10" dxfId="264" priority="67" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="263" priority="69" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="262" priority="70" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="261" priority="73" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="266" priority="67" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="265" priority="69" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="264" priority="70" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="263" priority="73" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V212:V236">
-    <cfRule type="top10" dxfId="260" priority="68" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="262" priority="68" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V270:V281 W277:W281">
-    <cfRule type="top10" dxfId="259" priority="15" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="258" priority="16" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="257" priority="17" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="256" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="261" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="260" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="259" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="258" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W270:W276">
-    <cfRule type="top10" dxfId="255" priority="7" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="254" priority="5" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="253" priority="4" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="252" priority="3" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="251" priority="2" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="250" priority="6" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="249" priority="9" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="248" priority="10" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="247" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="257" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="256" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="255" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="254" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="253" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="252" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="251" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="250" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="249" priority="11" percent="1" rank="10"/>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -41032,7 +41052,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="246" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="248" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41044,10 +41064,10 @@
   <dimension ref="A1:W281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F227" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection pane="bottomRight" activeCell="V231" sqref="V231:V236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58423,6 +58443,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B269 B271:B275 B278:B1048576">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:B262">
+    <cfRule type="top10" dxfId="147" priority="67" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="146" priority="70" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="145" priority="155" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B270:B274 C270:R270">
+    <cfRule type="top10" dxfId="144" priority="38" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B277:R277">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C269 C271:C275 C278:C1048576">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C195:C262">
+    <cfRule type="top10" dxfId="143" priority="156" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="142" priority="69" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="141" priority="66" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C270:C274">
+    <cfRule type="top10" dxfId="140" priority="37" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D269 D271:D275 D278:D1048576">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -58432,25 +58498,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B195:B262">
-    <cfRule type="top10" dxfId="245" priority="65" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="244" priority="68" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="243" priority="153" percent="1" rank="10"/>
+  <conditionalFormatting sqref="D195:D262">
+    <cfRule type="top10" dxfId="139" priority="157" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="138" priority="68" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B270:B274 C270:R270">
-    <cfRule type="top10" dxfId="242" priority="36" percent="1" rank="10"/>
+  <conditionalFormatting sqref="D212:D263">
+    <cfRule type="top10" dxfId="137" priority="65" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B277:R277">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="D270:D274">
+    <cfRule type="top10" dxfId="136" priority="36" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C269 C271:C275 C278:C1048576">
+  <conditionalFormatting sqref="E1:E269 E271:E275 E278:E1048576">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -58460,15 +58518,66 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C195:C262">
-    <cfRule type="top10" dxfId="241" priority="154" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="240" priority="67" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="239" priority="64" percent="1" rank="10"/>
+  <conditionalFormatting sqref="E195:E262">
+    <cfRule type="top10" dxfId="135" priority="159" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="134" priority="158" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="133" priority="64" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C270:C274">
-    <cfRule type="top10" dxfId="238" priority="35" percent="1" rank="10"/>
+  <conditionalFormatting sqref="E195:E263">
+    <cfRule type="top10" dxfId="132" priority="163" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D269 D271:D275 D278:D1048576">
+  <conditionalFormatting sqref="E270:E274">
+    <cfRule type="top10" dxfId="131" priority="35" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195:F209">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="130" priority="78" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195:F262">
+    <cfRule type="top10" dxfId="129" priority="162" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="128" priority="161" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="127" priority="160" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="126" priority="63" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195:F263">
+    <cfRule type="top10" dxfId="125" priority="111" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F270:F274">
+    <cfRule type="top10" dxfId="124" priority="34" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G195:G209">
+    <cfRule type="top10" dxfId="123" priority="90" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G195:G262">
+    <cfRule type="top10" dxfId="122" priority="112" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="121" priority="113" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="120" priority="114" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="119" priority="115" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="118" priority="39" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="117" priority="62" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="116" priority="116" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G267:G269 G1:G9 G11:G265 G271:G276 H276:R276 B276:F276 G278:G1048576">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G270:G274">
+    <cfRule type="top10" dxfId="115" priority="33" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G266:R266 F1:F269 G10:V10 F271:F275 F278:F1048576">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -58478,18 +58587,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D195:D262">
-    <cfRule type="top10" dxfId="237" priority="155" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="236" priority="66" percent="1" rank="10"/>
+  <conditionalFormatting sqref="H195:H209">
+    <cfRule type="top10" dxfId="114" priority="89" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D212:D263">
-    <cfRule type="top10" dxfId="235" priority="63" percent="1" rank="10"/>
+  <conditionalFormatting sqref="H195:H262">
+    <cfRule type="top10" dxfId="113" priority="61" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="112" priority="118" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="111" priority="117" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="110" priority="40" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="109" priority="120" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="108" priority="119" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D270:D274">
-    <cfRule type="top10" dxfId="234" priority="34" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E269 E271:E275 E278:E1048576">
-    <cfRule type="colorScale" priority="105">
+  <conditionalFormatting sqref="H267:H269 H1:H9 H11:H265 H271:H275 H278:H1048576">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -58498,53 +58608,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E195:E262">
-    <cfRule type="top10" dxfId="233" priority="157" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="232" priority="156" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="231" priority="62" percent="1" rank="10"/>
+  <conditionalFormatting sqref="H270:H274">
+    <cfRule type="top10" dxfId="107" priority="32" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E195:E263">
-    <cfRule type="top10" dxfId="230" priority="161" percent="1" rank="10"/>
+  <conditionalFormatting sqref="I195:I209">
+    <cfRule type="top10" dxfId="106" priority="88" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E270:E274">
-    <cfRule type="top10" dxfId="229" priority="33" percent="1" rank="10"/>
+  <conditionalFormatting sqref="I195:I262">
+    <cfRule type="top10" dxfId="105" priority="123" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="104" priority="122" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="103" priority="121" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="102" priority="124" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="101" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="100" priority="60" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F195:F209">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="228" priority="76" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195:F262">
-    <cfRule type="top10" dxfId="227" priority="160" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="226" priority="159" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="225" priority="158" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="224" priority="61" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195:F263">
-    <cfRule type="top10" dxfId="223" priority="109" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F270:F274">
-    <cfRule type="top10" dxfId="222" priority="32" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G195:G209">
-    <cfRule type="top10" dxfId="221" priority="88" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G195:G262">
-    <cfRule type="top10" dxfId="220" priority="110" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="219" priority="111" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="218" priority="112" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="217" priority="113" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="216" priority="37" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="215" priority="60" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="214" priority="114" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G267:G269 G1:G9 G11:G265 G271:G276 H276:R276 B276:F276 G278:G1048576">
+  <conditionalFormatting sqref="I267:I269 I1:I9 I11:I265 I271:I275 I278:I1048576">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -58554,11 +58632,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G270:G274">
-    <cfRule type="top10" dxfId="213" priority="31" percent="1" rank="10"/>
+  <conditionalFormatting sqref="I270:I274">
+    <cfRule type="top10" dxfId="99" priority="31" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G266:R266 F1:F269 G10:V10 F271:F275 F278:F1048576">
-    <cfRule type="colorScale" priority="104">
+  <conditionalFormatting sqref="J195:J209">
+    <cfRule type="top10" dxfId="98" priority="87" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J195:J262">
+    <cfRule type="top10" dxfId="97" priority="127" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="96" priority="126" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="95" priority="125" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="94" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="93" priority="59" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="92" priority="128" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J267:J269 J1:J9 J11:J265 J271:J275 J278:J1048576">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -58567,18 +58656,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H195:H209">
-    <cfRule type="top10" dxfId="212" priority="87" percent="1" rank="10"/>
+  <conditionalFormatting sqref="J270:J274">
+    <cfRule type="top10" dxfId="91" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H195:H262">
-    <cfRule type="top10" dxfId="211" priority="59" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="210" priority="116" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="209" priority="115" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="208" priority="38" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="207" priority="118" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="206" priority="117" percent="1" rank="10"/>
+  <conditionalFormatting sqref="K195:K209">
+    <cfRule type="top10" dxfId="90" priority="86" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H267:H269 H1:H9 H11:H265 H271:H275 H278:H1048576">
+  <conditionalFormatting sqref="K195:K262">
+    <cfRule type="top10" dxfId="89" priority="43" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="88" priority="58" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="87" priority="132" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="86" priority="131" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="85" priority="130" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="84" priority="129" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K267:K269 K1:K9 K11:K265 K271:K275 K278:K1048576">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -58588,22 +58680,25 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H270:H274">
-    <cfRule type="top10" dxfId="205" priority="30" percent="1" rank="10"/>
+  <conditionalFormatting sqref="K270:K274">
+    <cfRule type="top10" dxfId="83" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I195:I209">
-    <cfRule type="top10" dxfId="204" priority="86" percent="1" rank="10"/>
+  <conditionalFormatting sqref="L195:L209">
+    <cfRule type="top10" dxfId="82" priority="85" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I195:I262">
-    <cfRule type="top10" dxfId="203" priority="121" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="202" priority="120" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="201" priority="119" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="200" priority="122" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="199" priority="39" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="198" priority="58" percent="1" rank="10"/>
+  <conditionalFormatting sqref="L195:L262">
+    <cfRule type="top10" dxfId="81" priority="135" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="80" priority="136" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="79" priority="44" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="78" priority="57" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="77" priority="133" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="76" priority="134" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I267:I269 I1:I9 I11:I265 I271:I275 I278:I1048576">
-    <cfRule type="colorScale" priority="101">
+  <conditionalFormatting sqref="L203:L262">
+    <cfRule type="top10" dxfId="75" priority="164" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L267:L269 L1:L9 L11:L265 L271:L275 L278:L1048576">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -58612,21 +58707,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I270:I274">
-    <cfRule type="top10" dxfId="197" priority="29" percent="1" rank="10"/>
+  <conditionalFormatting sqref="L270:L274">
+    <cfRule type="top10" dxfId="74" priority="28" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J195:J209">
-    <cfRule type="top10" dxfId="196" priority="85" percent="1" rank="10"/>
+  <conditionalFormatting sqref="M195:M209">
+    <cfRule type="top10" dxfId="73" priority="84" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J195:J262">
-    <cfRule type="top10" dxfId="195" priority="125" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="194" priority="124" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="193" priority="123" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="192" priority="40" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="191" priority="57" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="190" priority="126" percent="1" rank="10"/>
+  <conditionalFormatting sqref="M195:M262">
+    <cfRule type="top10" dxfId="72" priority="137" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="71" priority="138" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="139" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="69" priority="56" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="68" priority="45" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J267:J269 J1:J9 J11:J265 J271:J275 J278:J1048576">
+  <conditionalFormatting sqref="M203:M262">
+    <cfRule type="top10" dxfId="67" priority="165" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M267:M269 M1:M9 M11:M265 M271:M275 M278:M1048576">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -58636,48 +58733,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J270:J274">
-    <cfRule type="top10" dxfId="189" priority="28" percent="1" rank="10"/>
+  <conditionalFormatting sqref="M270:M274">
+    <cfRule type="top10" dxfId="66" priority="27" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K195:K209">
-    <cfRule type="top10" dxfId="188" priority="84" percent="1" rank="10"/>
+  <conditionalFormatting sqref="N195:N209">
+    <cfRule type="top10" dxfId="65" priority="83" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K195:K262">
-    <cfRule type="top10" dxfId="187" priority="41" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="186" priority="56" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="185" priority="130" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="184" priority="129" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="183" priority="128" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="182" priority="127" percent="1" rank="10"/>
+  <conditionalFormatting sqref="N195:N262">
+    <cfRule type="top10" dxfId="64" priority="55" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="63" priority="140" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="62" priority="141" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="61" priority="142" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="60" priority="46" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K267:K269 K1:K9 K11:K265 K271:K275 K278:K1048576">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="N203:N262">
+    <cfRule type="top10" dxfId="59" priority="166" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K270:K274">
-    <cfRule type="top10" dxfId="181" priority="27" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L195:L209">
-    <cfRule type="top10" dxfId="180" priority="83" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L195:L262">
-    <cfRule type="top10" dxfId="179" priority="133" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="178" priority="134" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="177" priority="42" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="176" priority="55" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="175" priority="131" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="174" priority="132" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L203:L262">
-    <cfRule type="top10" dxfId="173" priority="162" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L267:L269 L1:L9 L11:L265 L271:L275 L278:L1048576">
+  <conditionalFormatting sqref="N267:N269 N1:N9 N11:N265 N271:N275 N278:N1048576">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -58687,23 +58759,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L270:L274">
-    <cfRule type="top10" dxfId="172" priority="26" percent="1" rank="10"/>
+  <conditionalFormatting sqref="N270:N274">
+    <cfRule type="top10" dxfId="58" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M195:M209">
-    <cfRule type="top10" dxfId="171" priority="82" percent="1" rank="10"/>
+  <conditionalFormatting sqref="O195:O209">
+    <cfRule type="top10" dxfId="57" priority="82" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M195:M262">
-    <cfRule type="top10" dxfId="170" priority="135" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="169" priority="136" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="168" priority="137" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="167" priority="54" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="166" priority="43" percent="1" rank="10"/>
+  <conditionalFormatting sqref="O195:O262">
+    <cfRule type="top10" dxfId="56" priority="144" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="55" priority="54" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="54" priority="145" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="53" priority="143" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="52" priority="47" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M203:M262">
-    <cfRule type="top10" dxfId="165" priority="163" percent="1" rank="10"/>
+  <conditionalFormatting sqref="O203:O262">
+    <cfRule type="top10" dxfId="51" priority="167" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M267:M269 M1:M9 M11:M265 M271:M275 M278:M1048576">
+  <conditionalFormatting sqref="O267:O269 O1:O9 O11:O265 O271:O275 O278:O1048576">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -58713,23 +58785,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M270:M274">
-    <cfRule type="top10" dxfId="164" priority="25" percent="1" rank="10"/>
+  <conditionalFormatting sqref="O270:O274">
+    <cfRule type="top10" dxfId="50" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N195:N209">
-    <cfRule type="top10" dxfId="163" priority="81" percent="1" rank="10"/>
+  <conditionalFormatting sqref="P195:P209">
+    <cfRule type="top10" dxfId="49" priority="81" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N195:N262">
-    <cfRule type="top10" dxfId="162" priority="53" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="161" priority="138" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="160" priority="139" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="159" priority="140" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="158" priority="44" percent="1" rank="10"/>
+  <conditionalFormatting sqref="P195:P262">
+    <cfRule type="top10" dxfId="48" priority="53" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="47" priority="146" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="46" priority="48" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="45" priority="147" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="44" priority="148" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N203:N262">
-    <cfRule type="top10" dxfId="157" priority="164" percent="1" rank="10"/>
+  <conditionalFormatting sqref="P203:P262">
+    <cfRule type="top10" dxfId="43" priority="168" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N267:N269 N1:N9 N11:N265 N271:N275 N278:N1048576">
+  <conditionalFormatting sqref="P267:P269 P1:P9 P11:P265 P271:P275 P278:P1048576">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -58739,23 +58811,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N270:N274">
-    <cfRule type="top10" dxfId="156" priority="24" percent="1" rank="10"/>
+  <conditionalFormatting sqref="P270:P274">
+    <cfRule type="top10" dxfId="42" priority="24" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O195:O209">
-    <cfRule type="top10" dxfId="155" priority="80" percent="1" rank="10"/>
+  <conditionalFormatting sqref="Q195:Q209">
+    <cfRule type="top10" dxfId="41" priority="80" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O195:O262">
-    <cfRule type="top10" dxfId="154" priority="142" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="153" priority="52" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="152" priority="143" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="151" priority="141" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="150" priority="45" percent="1" rank="10"/>
+  <conditionalFormatting sqref="Q195:Q262">
+    <cfRule type="top10" dxfId="40" priority="151" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="150" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="149" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="52" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="49" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O203:O262">
-    <cfRule type="top10" dxfId="149" priority="165" percent="1" rank="10"/>
+  <conditionalFormatting sqref="Q203:Q262">
+    <cfRule type="top10" dxfId="35" priority="169" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O267:O269 O1:O9 O11:O265 O271:O275 O278:O1048576">
+  <conditionalFormatting sqref="Q267:Q269 Q1:Q9 Q11:Q265 Q271:Q275 Q278:Q1048576">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -58765,23 +58837,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O270:O274">
-    <cfRule type="top10" dxfId="148" priority="23" percent="1" rank="10"/>
+  <conditionalFormatting sqref="Q270:Q274">
+    <cfRule type="top10" dxfId="34" priority="23" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P195:P209">
-    <cfRule type="top10" dxfId="147" priority="79" percent="1" rank="10"/>
+  <conditionalFormatting sqref="R195:R209">
+    <cfRule type="top10" dxfId="33" priority="79" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P195:P262">
-    <cfRule type="top10" dxfId="146" priority="51" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="145" priority="144" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="144" priority="46" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="143" priority="145" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="142" priority="146" percent="1" rank="10"/>
+  <conditionalFormatting sqref="R195:R262">
+    <cfRule type="top10" dxfId="32" priority="154" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="152" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="153" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="51" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="50" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P203:P262">
-    <cfRule type="top10" dxfId="141" priority="166" percent="1" rank="10"/>
+  <conditionalFormatting sqref="R203:R262">
+    <cfRule type="top10" dxfId="27" priority="170" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P267:P269 P1:P9 P11:P265 P271:P275 P278:P1048576">
+  <conditionalFormatting sqref="R267:R269 R1:R9 R11:R265 R271:R275 R278:R1048576">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -58791,23 +58863,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P270:P274">
-    <cfRule type="top10" dxfId="140" priority="22" percent="1" rank="10"/>
+  <conditionalFormatting sqref="R270:R274">
+    <cfRule type="top10" dxfId="26" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q195:Q209">
-    <cfRule type="top10" dxfId="139" priority="78" percent="1" rank="10"/>
+  <conditionalFormatting sqref="T195:T281">
+    <cfRule type="top10" dxfId="25" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q195:Q262">
-    <cfRule type="top10" dxfId="138" priority="149" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="137" priority="148" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="136" priority="147" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="135" priority="50" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="134" priority="47" percent="1" rank="10"/>
+  <conditionalFormatting sqref="T270:U270 V1:V9 V11:V1048576 W277:W281 T271:T281 T195:T269 B270:R270">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q203:Q262">
-    <cfRule type="top10" dxfId="133" priority="167" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q267:Q269 Q1:Q9 Q11:Q265 Q271:Q275 Q278:Q1048576">
+  <conditionalFormatting sqref="U213:U269 U1:U9 U11:U211 U271:U1048576">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -58817,24 +58889,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q270:Q274">
-    <cfRule type="top10" dxfId="132" priority="21" percent="1" rank="10"/>
+  <conditionalFormatting sqref="V194:V281 W277:W281">
+    <cfRule type="top10" dxfId="24" priority="76" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="75" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R195:R209">
-    <cfRule type="top10" dxfId="131" priority="77" percent="1" rank="10"/>
+  <conditionalFormatting sqref="V195:V201">
+    <cfRule type="top10" dxfId="22" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R195:R262">
-    <cfRule type="top10" dxfId="130" priority="152" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="129" priority="150" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="128" priority="151" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="127" priority="49" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="126" priority="48" percent="1" rank="10"/>
+  <conditionalFormatting sqref="V195:V281 W277:W281">
+    <cfRule type="top10" dxfId="21" priority="77" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="74" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="71" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="73" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R203:R262">
-    <cfRule type="top10" dxfId="125" priority="168" percent="1" rank="10"/>
+  <conditionalFormatting sqref="V203:V209">
+    <cfRule type="top10" dxfId="17" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R267:R269 R1:R9 R11:R265 R271:R275 R278:R1048576">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="V212:V236">
+    <cfRule type="top10" dxfId="16" priority="72" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V270:V281 W277:W281">
+    <cfRule type="top10" dxfId="15" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="13" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="12" priority="18" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W195:W276">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -58842,77 +58923,22 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="11" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="7" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="6" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R270:R274">
-    <cfRule type="top10" dxfId="124" priority="20" percent="1" rank="10"/>
+  <conditionalFormatting sqref="V212:V229">
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T195:T281">
-    <cfRule type="top10" dxfId="123" priority="15" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T270:U270 V1:V9 V11:V1048576 W277:W281 T271:T281 T195:T269 B270:R270">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U213:U269 U1:U9 U11:U211 U271:U1048576">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V194:V281 W277:W281">
-    <cfRule type="top10" dxfId="122" priority="74" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="121" priority="73" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V195:V201">
-    <cfRule type="top10" dxfId="120" priority="2" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V195:V281 W277:W281">
-    <cfRule type="top10" dxfId="119" priority="75" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="118" priority="72" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="117" priority="69" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="116" priority="71" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V203:V209">
-    <cfRule type="top10" dxfId="115" priority="1" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V212:V236">
-    <cfRule type="top10" dxfId="114" priority="70" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V270:V281 W277:W281">
-    <cfRule type="top10" dxfId="113" priority="17" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="112" priority="18" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="111" priority="19" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="110" priority="16" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W195:W276">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="109" priority="13" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="108" priority="12" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="107" priority="11" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="106" priority="9" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="105" priority="8" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="104" priority="7" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="103" priority="6" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="102" priority="10" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="101" priority="4" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="100" priority="5" percent="1" rank="10"/>
+  <conditionalFormatting sqref="V231:V236">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -75414,9 +75440,9 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B200:B267">
-    <cfRule type="top10" dxfId="99" priority="512" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="98" priority="20" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="97" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="247" priority="512" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="246" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="245" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C274 C276:C1048576">
     <cfRule type="colorScale" priority="120">
@@ -75429,9 +75455,9 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C200:C267">
-    <cfRule type="top10" dxfId="96" priority="16" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="95" priority="514" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="94" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="244" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="243" priority="514" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="242" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D274 D276:D1048576">
     <cfRule type="colorScale" priority="119">
@@ -75444,11 +75470,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D200:D267">
-    <cfRule type="top10" dxfId="93" priority="18" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="92" priority="516" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="241" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="240" priority="516" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D217:D268">
-    <cfRule type="top10" dxfId="91" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="239" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E274 E276:E1048576">
     <cfRule type="colorScale" priority="118">
@@ -75461,12 +75487,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E200:E267">
-    <cfRule type="top10" dxfId="90" priority="14" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="89" priority="519" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="88" priority="518" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="238" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="237" priority="519" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="236" priority="518" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E200:E268">
-    <cfRule type="top10" dxfId="87" priority="528" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="235" priority="528" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200:F214">
     <cfRule type="colorScale" priority="101">
@@ -75477,27 +75503,27 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="86" priority="88" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="234" priority="88" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200:F267">
-    <cfRule type="top10" dxfId="85" priority="524" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="84" priority="523" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="83" priority="522" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="82" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="233" priority="524" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="232" priority="523" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="231" priority="522" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="230" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200:F268">
-    <cfRule type="top10" dxfId="81" priority="424" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="229" priority="424" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G200:G214">
-    <cfRule type="top10" dxfId="80" priority="100" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="228" priority="100" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G200:G267">
-    <cfRule type="top10" dxfId="79" priority="427" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="78" priority="428" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="77" priority="429" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="76" priority="12" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="75" priority="426" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="74" priority="430" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="227" priority="427" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="226" priority="428" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="225" priority="429" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="224" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="223" priority="426" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="222" priority="430" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G272:G274 G1:G9 G11:G270 G276:G1048576">
     <cfRule type="colorScale" priority="116">
@@ -75520,14 +75546,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200:H214">
-    <cfRule type="top10" dxfId="73" priority="99" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="221" priority="99" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200:H267">
-    <cfRule type="top10" dxfId="72" priority="438" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="71" priority="436" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="70" priority="439" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="69" priority="437" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="68" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="220" priority="438" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="219" priority="436" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="218" priority="439" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="217" priority="437" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="216" priority="11" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H272:H274 H1:H9 H11:H270 H276:H1048576">
     <cfRule type="colorScale" priority="115">
@@ -75540,14 +75566,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I200:I214">
-    <cfRule type="top10" dxfId="67" priority="98" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="215" priority="98" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I200:I267">
-    <cfRule type="top10" dxfId="66" priority="447" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="65" priority="444" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="64" priority="445" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="63" priority="10" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="62" priority="446" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="214" priority="447" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="213" priority="444" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="212" priority="445" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="211" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="210" priority="446" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I272:I274 I1:I9 I11:I270 I276:I1048576">
     <cfRule type="colorScale" priority="114">
@@ -75560,14 +75586,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J200:J214">
-    <cfRule type="top10" dxfId="61" priority="97" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="209" priority="97" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J200:J267">
-    <cfRule type="top10" dxfId="60" priority="9" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="59" priority="453" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="58" priority="454" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="57" priority="452" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="56" priority="455" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="208" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="207" priority="453" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="206" priority="454" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="205" priority="452" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="204" priority="455" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J272:J274 J1:J9 J11:J270 J276:J1048576">
     <cfRule type="colorScale" priority="111">
@@ -75580,14 +75606,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200:K214">
-    <cfRule type="top10" dxfId="55" priority="96" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="203" priority="96" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200:K267">
-    <cfRule type="top10" dxfId="54" priority="8" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="53" priority="461" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="52" priority="462" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="51" priority="463" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="50" priority="460" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="202" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="201" priority="461" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="200" priority="462" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="199" priority="463" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="198" priority="460" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K272:K274 K1:K9 K11:K270 K276:K1048576">
     <cfRule type="colorScale" priority="112">
@@ -75600,17 +75626,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L200:L214">
-    <cfRule type="top10" dxfId="49" priority="95" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="197" priority="95" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L200:L267">
-    <cfRule type="top10" dxfId="48" priority="7" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="47" priority="468" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="46" priority="470" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="45" priority="471" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="44" priority="469" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="196" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="195" priority="468" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="194" priority="470" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="193" priority="471" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="192" priority="469" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L208:L267">
-    <cfRule type="top10" dxfId="43" priority="530" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="191" priority="530" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L272:L274 L1:L9 L11:L270 L276:L1048576">
     <cfRule type="colorScale" priority="110">
@@ -75623,16 +75649,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M200:M214">
-    <cfRule type="top10" dxfId="42" priority="94" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="190" priority="94" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M200:M267">
-    <cfRule type="top10" dxfId="41" priority="6" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="40" priority="476" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="39" priority="477" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="38" priority="478" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="189" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="188" priority="476" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="187" priority="477" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="186" priority="478" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M208:M267">
-    <cfRule type="top10" dxfId="37" priority="532" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="185" priority="532" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M272:M274 M1:M9 M11:M270 M276:M1048576">
     <cfRule type="colorScale" priority="109">
@@ -75645,16 +75671,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N200:N214">
-    <cfRule type="top10" dxfId="36" priority="93" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="184" priority="93" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N200:N267">
-    <cfRule type="top10" dxfId="35" priority="483" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="34" priority="484" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="33" priority="5" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="32" priority="482" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="183" priority="483" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="182" priority="484" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="181" priority="5" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="180" priority="482" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N208:N267">
-    <cfRule type="top10" dxfId="31" priority="534" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="179" priority="534" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N272:N274 N1:N9 N11:N270 N276:N1048576">
     <cfRule type="colorScale" priority="108">
@@ -75667,16 +75693,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O200:O214">
-    <cfRule type="top10" dxfId="30" priority="92" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="178" priority="92" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O200:O267">
-    <cfRule type="top10" dxfId="29" priority="4" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="28" priority="488" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="27" priority="489" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="26" priority="490" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="177" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="176" priority="488" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="175" priority="489" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="174" priority="490" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O208:O267">
-    <cfRule type="top10" dxfId="25" priority="536" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="173" priority="536" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O272:O274 O1:O9 O11:O270 O276:O1048576">
     <cfRule type="colorScale" priority="107">
@@ -75689,16 +75715,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P200:P214">
-    <cfRule type="top10" dxfId="24" priority="91" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="172" priority="91" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P200:P267">
-    <cfRule type="top10" dxfId="23" priority="496" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="22" priority="3" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="21" priority="494" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="20" priority="495" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="171" priority="496" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="170" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="169" priority="494" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="168" priority="495" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P208:P267">
-    <cfRule type="top10" dxfId="19" priority="538" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="167" priority="538" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P272:P274 P1:P9 P11:P270 P276:P1048576">
     <cfRule type="colorScale" priority="106">
@@ -75711,16 +75737,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q200:Q214">
-    <cfRule type="top10" dxfId="18" priority="90" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="166" priority="90" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q200:Q267">
-    <cfRule type="top10" dxfId="17" priority="500" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="16" priority="501" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="15" priority="502" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="14" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="165" priority="500" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="164" priority="501" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="163" priority="502" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="162" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q208:Q267">
-    <cfRule type="top10" dxfId="13" priority="540" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="161" priority="540" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q272:Q274 Q1:Q9 Q11:Q270 Q276:Q1048576">
     <cfRule type="colorScale" priority="105">
@@ -75733,16 +75759,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R200:R214">
-    <cfRule type="top10" dxfId="12" priority="89" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="160" priority="89" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R200:R267">
-    <cfRule type="top10" dxfId="11" priority="507" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="10" priority="508" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="9" priority="1" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="8" priority="506" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="159" priority="507" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="158" priority="508" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="157" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="156" priority="506" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R208:R267">
-    <cfRule type="top10" dxfId="7" priority="542" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="155" priority="542" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R272:R274 R1:R9 R11:R270 R276:R1048576">
     <cfRule type="colorScale" priority="104">
@@ -75775,17 +75801,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V199:V278">
-    <cfRule type="top10" dxfId="6" priority="73" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="5" priority="72" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="154" priority="73" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="153" priority="72" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V200:V278">
-    <cfRule type="top10" dxfId="4" priority="87" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="3" priority="71" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="2" priority="38" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="1" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="152" priority="87" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="151" priority="71" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="150" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="149" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V217:V241">
-    <cfRule type="top10" dxfId="0" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="148" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
